--- a/Content sources/Analysis Specifications and naming conventions for website 1.2.xlsx
+++ b/Content sources/Analysis Specifications and naming conventions for website 1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurice/Projects_Local/Github/thalassa-website/Content sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F823A3DF-2EFA-4E41-B63A-709BEB633AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779C84D-BED7-1147-BB91-524A1A942B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="500" windowWidth="44000" windowHeight="40400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-47860" yWindow="9060" windowWidth="48780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>Animation 2012 -22:  Where is growth erupting anually?  Is there a pattern?</t>
   </si>
   <si>
-    <t>Prescriptions Growth: % annual change of PPR1 in each LSOA</t>
-  </si>
-  <si>
     <t>Depression Growth: % annual change of DPR1 in each LSOA</t>
   </si>
   <si>
@@ -314,12 +311,6 @@
     <t>Prescriptions Prevalence and Growth = PPR</t>
   </si>
   <si>
-    <t>Prescriptions Prevalence: % of all GP registered patients with anti-depressant prescription in each LSOA</t>
-  </si>
-  <si>
-    <t>Animation 2012 -22:  How does presciption Prevalence  evolve and where are clusters of high or low depression forming?</t>
-  </si>
-  <si>
     <t>GWR using Depression Growth as the dependent variable and Depression Prevalence in the prior or current  year as the independent variable.  The objective is to see if eruptions of growth are more likely or less likely with high or low depresssion Prevalence (Implementation: LocalR2 with y: percentage_change x: est_qof_dep , need to see if previous year or current year)</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
     <t>Depression Prevalence</t>
   </si>
   <si>
-    <t>Prescriptions Prevalence</t>
-  </si>
-  <si>
     <t>Items per Patient</t>
   </si>
   <si>
@@ -399,6 +387,18 @@
   </si>
   <si>
     <t>Depression Growth (Alternative Depression Growth Groups)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prescription Density (Prescription Items per All Patients in each LSOA)</t>
+  </si>
+  <si>
+    <t>Animation 2012 -22:  How does presciption Density  evolve and where are clusters of high or low presctription denisty forming?</t>
+  </si>
+  <si>
+    <t>Prescriptions Density Growth: % annual change of PPR1 in each LSOA</t>
+  </si>
+  <si>
+    <t>Prescriptions Density</t>
   </si>
 </sst>
 </file>
@@ -1266,12 +1266,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1294,9 +1288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1364,12 +1355,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -1432,35 +1417,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2600,7 +2600,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2624,11 +2624,11 @@
   <sheetData>
     <row r="1" spans="1:20" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2658,30 +2658,30 @@
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="109" t="s">
+      <c r="D2" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>7</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="3" spans="1:20" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="97"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="92"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -2744,20 +2744,20 @@
       <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="93" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -2802,20 +2802,20 @@
     </row>
     <row r="5" spans="1:20" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="79" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="94" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -2860,16 +2860,16 @@
     </row>
     <row r="6" spans="1:20" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="97"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="92"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -2886,20 +2886,20 @@
     </row>
     <row r="7" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="53" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="93" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -2944,20 +2944,20 @@
     </row>
     <row r="8" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="79" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="95" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="18" t="s">
@@ -3000,20 +3000,20 @@
     </row>
     <row r="9" spans="1:20" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="99" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="94" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
@@ -3054,16 +3054,16 @@
     </row>
     <row r="10" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="97"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="92"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -3080,20 +3080,20 @@
     </row>
     <row r="11" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="57" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="101" t="s">
+      <c r="F11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="96" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="38" t="s">
@@ -3138,20 +3138,20 @@
     </row>
     <row r="12" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="55" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="102"/>
+      <c r="F12" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="97"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3170,20 +3170,20 @@
     </row>
     <row r="13" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="55" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="102"/>
+      <c r="F13" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="97"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3202,20 +3202,20 @@
     </row>
     <row r="14" spans="1:20" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="55" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="102"/>
+      <c r="F14" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="97"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3236,20 +3236,20 @@
     </row>
     <row r="15" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="80" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="102"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -3265,25 +3265,25 @@
         <v>46</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="55" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="102"/>
+      <c r="F16" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="97"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3304,20 +3304,20 @@
     </row>
     <row r="17" spans="1:20" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="116" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="118" t="s">
+      <c r="D17" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="103" t="s">
+      <c r="F17" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="98" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="39" t="s">
@@ -3337,19 +3337,19 @@
         <v>49</v>
       </c>
       <c r="T17" s="41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="97"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
@@ -3366,18 +3366,18 @@
     </row>
     <row r="19" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="122" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="67" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
@@ -3396,18 +3396,18 @@
     </row>
     <row r="20" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="124" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="125" t="s">
+      <c r="F20" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="102"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -3426,18 +3426,18 @@
     </row>
     <row r="21" spans="1:20" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="69"/>
+      <c r="E21" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="103"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -3454,18 +3454,18 @@
     </row>
     <row r="22" spans="1:20" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="128" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="103"/>
+      <c r="F22" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="98"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -3484,12 +3484,12 @@
     </row>
     <row r="23" spans="1:20" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -3540,14 +3540,14 @@
       <c r="A25" s="15"/>
       <c r="B25" s="42"/>
       <c r="C25" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="49" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -3570,14 +3570,14 @@
       <c r="A26" s="15"/>
       <c r="B26" s="42"/>
       <c r="C26" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="49" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -3610,12 +3610,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b11faa0b-7120-4a3e-99fd-301f7988c611" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="263f8bb8-dc0a-4d32-b4a4-20a8d684440c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3820,20 +3822,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b11faa0b-7120-4a3e-99fd-301f7988c611" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="263f8bb8-dc0a-4d32-b4a4-20a8d684440c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA7A291-6D4A-4614-BE37-CE695E75897A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D4E9FB-1168-45CB-90B2-7D5B65099F07}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="263f8bb8-dc0a-4d32-b4a4-20a8d684440c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b11faa0b-7120-4a3e-99fd-301f7988c611"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3858,18 +3867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D4E9FB-1168-45CB-90B2-7D5B65099F07}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA7A291-6D4A-4614-BE37-CE695E75897A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="263f8bb8-dc0a-4d32-b4a4-20a8d684440c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b11faa0b-7120-4a3e-99fd-301f7988c611"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Content sources/Analysis Specifications and naming conventions for website 1.2.xlsx
+++ b/Content sources/Analysis Specifications and naming conventions for website 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurice/Projects_Local/Github/thalassa-website/Content sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779C84D-BED7-1147-BB91-524A1A942B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDBB96-1F33-6E4C-AFB4-5C498BE19BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47860" yWindow="9060" windowWidth="48780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15100" yWindow="500" windowWidth="50840" windowHeight="40100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>LocalR2 &amp; Tvalue: Depression Growth vs Prior Year Items per Patient</t>
   </si>
   <si>
-    <t>LocalR2 &amp; Tvalue: Depression Prevelance  vs  Prior Year Items per Patient</t>
-  </si>
-  <si>
     <t>Depression Growth % vs Prescription Items per Depressed Patient: Global Regression across all LSOAs in the area (e.g. Greater London) (all current year)</t>
   </si>
   <si>
@@ -374,12 +371,6 @@
     <t>Animation 2014 -22: What is the R-squared error for a GWR of Depression Growth vs Items/Patient 2014-22?</t>
   </si>
   <si>
-    <t>Animation 2014 -22: Where does  the GWR of Depression Growth vs Items/Patient In the prior year  provide a good or poor explanation of Depression Growth?</t>
-  </si>
-  <si>
-    <t>Animation 2014 -22: Where does  the GWR of Depression Prevalence vs Items/Patient In the prior year provide a good or poor explanation of Depression Growth?</t>
-  </si>
-  <si>
     <t>Animation 2014 -22: Same as DPR2 but different bin edges to attempt to observe clusters and give clues about growth drivers: Can we see clusters of depression growth forming in any pattern?</t>
   </si>
   <si>
@@ -399,6 +390,15 @@
   </si>
   <si>
     <t>Prescriptions Density</t>
+  </si>
+  <si>
+    <t>Annual Snapshot 2014-22.  Where does  the GWR of Depression Growth vs prior year Depression provide a good or poor explanation of Depression Growth?</t>
+  </si>
+  <si>
+    <t>Annual Snapshot 2014-22: Where does  the GWR of Depression Growth vs prior year Items/Patient  provide a good or poor explanation of Depression Growth?</t>
+  </si>
+  <si>
+    <t>LocalR2 &amp; Tvalue: Depression Growth vs  Prior Year depression Prevelance</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2888,16 +2888,16 @@
       <c r="A7" s="46"/>
       <c r="B7" s="60"/>
       <c r="C7" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>120</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="93" t="s">
         <v>19</v>
@@ -2946,7 +2946,7 @@
       <c r="A8" s="19"/>
       <c r="B8" s="62"/>
       <c r="C8" s="73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>65</v>
@@ -3082,7 +3082,7 @@
       <c r="A11" s="35"/>
       <c r="B11" s="63"/>
       <c r="C11" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>101</v>
@@ -3149,7 +3149,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="97"/>
       <c r="H12" s="14"/>
@@ -3181,7 +3181,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="14"/>
@@ -3207,13 +3207,13 @@
         <v>75</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G14" s="97"/>
       <c r="H14" s="14"/>
@@ -3247,7 +3247,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="97"/>
       <c r="H15" s="14"/>
@@ -3281,7 +3281,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G16" s="97"/>
       <c r="H16" s="14"/>
@@ -3309,13 +3309,13 @@
         <v>70</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E17" s="113" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="70" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G17" s="98" t="s">
         <v>19</v>
@@ -3344,7 +3344,7 @@
       <c r="A18" s="24"/>
       <c r="B18" s="58"/>
       <c r="C18" s="127" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="128"/>
       <c r="E18" s="129"/>
@@ -3610,17 +3610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b11faa0b-7120-4a3e-99fd-301f7988c611" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="263f8bb8-dc0a-4d32-b4a4-20a8d684440c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A98A78E90D51214A877F8A1FEF0FCBB3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7336e35ac21454d6c36bf257e1d16f64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="263f8bb8-dc0a-4d32-b4a4-20a8d684440c" xmlns:ns3="b11faa0b-7120-4a3e-99fd-301f7988c611" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c083be909b333cc423a1424c1728d5f" ns2:_="" ns3:_="">
     <xsd:import namespace="263f8bb8-dc0a-4d32-b4a4-20a8d684440c"/>
@@ -3821,6 +3810,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b11faa0b-7120-4a3e-99fd-301f7988c611" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="263f8bb8-dc0a-4d32-b4a4-20a8d684440c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3831,23 +3831,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D4E9FB-1168-45CB-90B2-7D5B65099F07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="263f8bb8-dc0a-4d32-b4a4-20a8d684440c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b11faa0b-7120-4a3e-99fd-301f7988c611"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584A813B-4BD2-41AE-A146-85BF72DA96B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3866,6 +3849,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D4E9FB-1168-45CB-90B2-7D5B65099F07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="263f8bb8-dc0a-4d32-b4a4-20a8d684440c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b11faa0b-7120-4a3e-99fd-301f7988c611"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DA7A291-6D4A-4614-BE37-CE695E75897A}">
   <ds:schemaRefs>
